--- a/srcript/reg_tab/Tables/hash_table.xlsx
+++ b/srcript/reg_tab/Tables/hash_table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21630" windowHeight="9810" tabRatio="821" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="1995" tabRatio="821" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="l2_entry_t" sheetId="13" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="trill_forward_tree_data_only_t" sheetId="15" r:id="rId13"/>
     <sheet name="mpls_entry_t" sheetId="16" r:id="rId14"/>
     <sheet name="mpls_entry_data_only_t" sheetId="17" r:id="rId15"/>
+    <sheet name="VLAN_PROTOCOL_t" sheetId="18" r:id="rId16"/>
+    <sheet name="VLAN_PROTOCOL_DATA_t" sheetId="19" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="877">
   <si>
     <t>Reserved</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3393,6 +3395,107 @@
   <si>
     <t>VXLAN_VNID(key_type=0x6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3_ENTRY(key_type=0x0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3_ENTRY(key_type=0x2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3_ENTRY(key_type=0x1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3_ENTRY(key_type=0x3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2_PKT_TYPE</t>
+  </si>
+  <si>
+    <t>18:17</t>
+  </si>
+  <si>
+    <t>2'b00: Incoming packet is Ethernet II packet
+2'b01: Incoming packet is SNAP packet
+2'b10: Incoming packet is LLC packet
+2'b11: others</t>
+  </si>
+  <si>
+    <t>default=0</t>
+  </si>
+  <si>
+    <t>ETHERTYPE</t>
+  </si>
+  <si>
+    <t>Ethertype field.</t>
+  </si>
+  <si>
+    <t>valid.</t>
+  </si>
+  <si>
+    <t>VLAN_PROTOCOL_t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLAN_PROTOCOL_DATA_t</t>
+  </si>
+  <si>
+    <t>IPRI</t>
+  </si>
+  <si>
+    <t>37:35</t>
+  </si>
+  <si>
+    <t>802.1p/PCP associated with inner VLAN tag assigned by this entry.</t>
+  </si>
+  <si>
+    <t>ICFI</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>CFI/DE associated with inner VLAN tag assigned by this entry.</t>
+  </si>
+  <si>
+    <t>OCFI</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>CFI/DE associated with outer VLAN tag assigned by this entry.</t>
+  </si>
+  <si>
+    <t>32:27</t>
+  </si>
+  <si>
+    <t>Ingress VLAN tag action profile pointer, used as the index into the ING_VLAN_TAG_ACTION_PROFILE table.</t>
+  </si>
+  <si>
+    <t>26:15</t>
+  </si>
+  <si>
+    <t>Internal inner VLAN ID.</t>
+  </si>
+  <si>
+    <t>14:3</t>
+  </si>
+  <si>
+    <t>Internal outer VLAN ID.</t>
+  </si>
+  <si>
+    <t>OPRI</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>802.1p/PCP associated with outer VLAN tag assigned by this entry.</t>
   </si>
 </sst>
 </file>
@@ -3941,7 +4044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -4435,6 +4538,15 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4443,74 +4555,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4530,7 +4574,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4810,8 +4854,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10882,7 +10926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
@@ -12261,13 +12305,408 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="41.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="247.5">
+      <c r="A2" s="13">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="129" customFormat="1" ht="54">
+      <c r="A4" s="167" t="s">
+        <v>857</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>850</v>
+      </c>
+      <c r="C4" s="165" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166" t="s">
+        <v>852</v>
+      </c>
+      <c r="G4" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H4" s="165"/>
+    </row>
+    <row r="5" spans="1:8" s="129" customFormat="1">
+      <c r="A5" s="167"/>
+      <c r="B5" s="165" t="s">
+        <v>854</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165" t="s">
+        <v>855</v>
+      </c>
+      <c r="G5" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H5" s="165"/>
+    </row>
+    <row r="6" spans="1:8" s="129" customFormat="1">
+      <c r="A6" s="167"/>
+      <c r="B6" s="165" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165" t="s">
+        <v>856</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H6" s="165"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"HASH,DIRECT,TCAM"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="41.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="247.5">
+      <c r="A2" s="13">
+        <v>928</v>
+      </c>
+      <c r="B2" s="13">
+        <v>38</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="129" customFormat="1">
+      <c r="A4" s="165" t="s">
+        <v>858</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>859</v>
+      </c>
+      <c r="C4" s="165" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165" t="s">
+        <v>861</v>
+      </c>
+      <c r="G4" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H4" s="165"/>
+    </row>
+    <row r="5" spans="1:8" s="129" customFormat="1">
+      <c r="A5" s="165"/>
+      <c r="B5" s="165" t="s">
+        <v>862</v>
+      </c>
+      <c r="C5" s="165" t="s">
+        <v>863</v>
+      </c>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165" t="s">
+        <v>864</v>
+      </c>
+      <c r="G5" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H5" s="165"/>
+    </row>
+    <row r="6" spans="1:8" s="129" customFormat="1">
+      <c r="A6" s="165"/>
+      <c r="B6" s="165" t="s">
+        <v>865</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>866</v>
+      </c>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165" t="s">
+        <v>867</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H6" s="165"/>
+    </row>
+    <row r="7" spans="1:8" s="129" customFormat="1">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>868</v>
+      </c>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165" t="s">
+        <v>869</v>
+      </c>
+      <c r="G7" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H7" s="165"/>
+    </row>
+    <row r="8" spans="1:8" s="129" customFormat="1">
+      <c r="A8" s="165"/>
+      <c r="B8" s="165" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>870</v>
+      </c>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165" t="s">
+        <v>871</v>
+      </c>
+      <c r="G8" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H8" s="165"/>
+    </row>
+    <row r="9" spans="1:8" s="129" customFormat="1">
+      <c r="A9" s="165"/>
+      <c r="B9" s="165" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="165" t="s">
+        <v>872</v>
+      </c>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165" t="s">
+        <v>873</v>
+      </c>
+      <c r="G9" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H9" s="165"/>
+    </row>
+    <row r="10" spans="1:8" s="129" customFormat="1">
+      <c r="A10" s="165"/>
+      <c r="B10" s="165" t="s">
+        <v>874</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>875</v>
+      </c>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165" t="s">
+        <v>876</v>
+      </c>
+      <c r="G10" s="165" t="s">
+        <v>853</v>
+      </c>
+      <c r="H10" s="165"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"HASH,DIRECT,TCAM"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12361,7 +12800,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1">
-      <c r="A4" s="143"/>
+      <c r="A4" s="143" t="s">
+        <v>846</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>217</v>
       </c>
@@ -12628,8 +13069,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD5"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12724,7 +13165,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="49.5">
-      <c r="A4" s="143"/>
+      <c r="A4" s="143" t="s">
+        <v>847</v>
+      </c>
       <c r="B4" s="28" t="s">
         <v>186</v>
       </c>
@@ -13077,8 +13520,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13172,7 +13615,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1">
-      <c r="A4" s="145"/>
+      <c r="A4" s="145" t="s">
+        <v>848</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>299</v>
       </c>
@@ -13646,8 +14091,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13741,7 +14186,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A4" s="145"/>
+      <c r="A4" s="145" t="s">
+        <v>849</v>
+      </c>
       <c r="B4" s="28" t="s">
         <v>570</v>
       </c>
@@ -14996,7 +15443,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -16224,8 +16671,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17393,7 +17840,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
